--- a/data/apitest2.xlsx
+++ b/data/apitest2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11680"/>
+    <workbookView windowWidth="28000" windowHeight="11660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>postJson</t>
   </si>
   <si>
-    <t>http://seller.test.cnoocmall.com/retail-mall/web/api/login/phone</t>
+    <t>https://seller.test.cnoocmall.com/retail-mall/web/api/login/phone</t>
   </si>
   <si>
     <t>{
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1159,7 +1159,7 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1171,7 +1171,7 @@
     <hyperlink ref="E2" r:id="rId1" display="http://www.baidu.com/" tooltip="http://www.baidu.com/"/>
     <hyperlink ref="E3" r:id="rId2" display="http://118.24.13.38:8080/goods/UserServlet?method=loginMobile&amp;loginname=test1&amp;loginpass=test1" tooltip="http://118.24.13.38:8080/goods/UserServlet?method=loginMobile&amp;loginname=test1&amp;loginpass=test1"/>
     <hyperlink ref="E4" r:id="rId3" display="http://118.24.13.38:8080/goods/UserServlet" tooltip="http://118.24.13.38:8080/goods/UserServlet"/>
-    <hyperlink ref="E5" r:id="rId4" display="http://seller.test.cnoocmall.com/retail-mall/web/api/login/phone"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://seller.test.cnoocmall.com/retail-mall/web/api/login/phone" tooltip="https://seller.test.cnoocmall.com/retail-mall/web/api/login/phone"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
